--- a/biology/Botanique/Allium_fimbriatum/Allium_fimbriatum.xlsx
+++ b/biology/Botanique/Allium_fimbriatum/Allium_fimbriatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Allium fimbriatum est une espèce d'oignon sauvage connue sous le nom vernaculaire d' oignon frangé. Il est originaire de Californie et de Baja California[1],[2],[3]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allium fimbriatum est une espèce d'oignon sauvage connue sous le nom vernaculaire d' oignon frangé. Il est originaire de Californie et de Baja California
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'oignon frangé pousse à partir d'un bulbe brun rougeâtre d'un à deux centimètres de large. Sa hampe florale est une tige nue brune ou verte. Au sommet de la tige se trouve une inflorescence de jusqu'à 75 fleurs, chacune d'un peu moins d'un centimètre de large en moyenne. Les fleurs sont de couleur variable, du rose au violet et souvent avec des zones blanches. Les tepales sont également de forme variable, étroit et pointu ou en forme de pique[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'oignon frangé pousse à partir d'un bulbe brun rougeâtre d'un à deux centimètres de large. Sa hampe florale est une tige nue brune ou verte. Au sommet de la tige se trouve une inflorescence de jusqu'à 75 fleurs, chacune d'un peu moins d'un centimètre de large en moyenne. Les fleurs sont de couleur variable, du rose au violet et souvent avec des zones blanches. Les tepales sont également de forme variable, étroit et pointu ou en forme de pique.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a comme synonymes
 Allium anserinum Jeps.
@@ -550,7 +566,7 @@
 Allium mohavense (Jeps.) Tidestr.
 Allium purdyi Eastw.
 Les variétés
-De nombreux noms ont été proposés pour les sous-espèces et les variétés, la plupart d'entre elles étant désormais considérées comme des espèces distinctes. Les éléments suivants sont notamment acceptés par la World Checklist[1].
+De nombreux noms ont été proposés pour les sous-espèces et les variétés, la plupart d'entre elles étant désormais considérées comme des espèces distinctes. Les éléments suivants sont notamment acceptés par la World Checklist.
 Allium fimbriatum var. denticulatum Ownbey &amp; Aase ex Traub
 Allium fimbriatum var. fimbriatum
 Allium fimbriatum var. mohavense Jeps.
